--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\OneDrive\Dokumente\Sc_Master\Masterthesis\Project\DomAdapt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318EA76A-9865-4009-A2A6-5D5D62B7AF03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847F7F4-724B-4218-83BF-96C57F85A604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C35B19F6-04BE-4ADE-8625-8B0ABD47C8B3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -251,6 +251,60 @@
   </si>
   <si>
     <t>state_dicts of models 0-5</t>
+  </si>
+  <si>
+    <t>Train selected</t>
+  </si>
+  <si>
+    <t>MLP, CNN</t>
+  </si>
+  <si>
+    <t>train_selected</t>
+  </si>
+  <si>
+    <t>Use less epochs to train selected CNN and MLP</t>
+  </si>
+  <si>
+    <t>state_dicts and losses of 0-5</t>
+  </si>
+  <si>
+    <t>Train best MLP on Hyytiala data</t>
+  </si>
+  <si>
+    <t>statedicts and losses</t>
+  </si>
+  <si>
+    <t>Pretraining without parameter values.</t>
+  </si>
+  <si>
+    <t>Pretrainingwith larger simulation data and parameter values</t>
+  </si>
+  <si>
+    <t>Pretraining with smaller sample (5000) from simulations</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>results look similar to smaller sim data: large fluctuaton in variation! High rmse</t>
+  </si>
+  <si>
+    <t>still large fluctuation, training error decreases faster while val loss increases</t>
+  </si>
+  <si>
+    <t>decrease learning rate from 0.001 to 0.00001</t>
+  </si>
+  <si>
+    <t>large fluctuations..</t>
+  </si>
+  <si>
+    <t>select best model by MAE instead of RMSE!!</t>
+  </si>
+  <si>
+    <t>smaller fluctuations, flat loss curve and jumpy (because of multiple hidden layers?!)</t>
+  </si>
+  <si>
+    <t>Train with best MAE model. Use less Hyytiala data (2001,2003)</t>
   </si>
 </sst>
 </file>
@@ -615,24 +669,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0397FBB-D2CD-440A-BC03-013EBB84CD2B}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="50.42578125" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -663,8 +718,11 @@
       <c r="J1" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44123</v>
       </c>
@@ -696,7 +754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44123</v>
       </c>
@@ -728,7 +786,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44123</v>
       </c>
@@ -760,7 +818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44124</v>
       </c>
@@ -789,7 +847,275 @@
         <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="C6">
+        <v>8957339</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="C7">
+        <v>8958437</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="C8">
+        <v>8964662</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C9">
+        <v>8969522</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="C10">
+        <v>8969576</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="C11">
+        <v>8969578</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>40474</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="C12">
+        <v>8970797</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>40474</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="C13">
+        <v>8969831</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\OneDrive\Dokumente\Sc_Master\Masterthesis\Project\DomAdapt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847F7F4-724B-4218-83BF-96C57F85A604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F4679B-7C4A-4358-91E4-44C253A3E4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C35B19F6-04BE-4ADE-8625-8B0ABD47C8B3}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{C35B19F6-04BE-4ADE-8625-8B0ABD47C8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="156">
   <si>
     <t>Date</t>
   </si>
@@ -106,63 +106,27 @@
     <t>Model Type</t>
   </si>
   <si>
-    <t>Validation Data</t>
-  </si>
-  <si>
-    <t>Training Data</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
     <t>Cross Validation</t>
   </si>
   <si>
-    <t>6-fold</t>
-  </si>
-  <si>
-    <t>Le_Bray</t>
-  </si>
-  <si>
-    <t>2001,2003,2004,2005,2006,2008</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>5-fold</t>
-  </si>
-  <si>
     <t>2001,2003,2004,2005,2006</t>
   </si>
   <si>
-    <t>Test_Years</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>2001,2003,2003,2004,2005,2006,2007,2008</t>
-  </si>
-  <si>
-    <t>Bily_Kriz, Soro, Collelongo</t>
-  </si>
-  <si>
     <t>Simulations</t>
   </si>
   <si>
     <t>Pretraining</t>
   </si>
   <si>
-    <t>Train_Val_Years</t>
-  </si>
-  <si>
     <t>Activation</t>
   </si>
   <si>
@@ -305,6 +269,280 @@
   </si>
   <si>
     <t>Train with best MAE model. Use less Hyytiala data (2001,2003)</t>
+  </si>
+  <si>
+    <t>Train MLP with Encoder and Adaptive Pooling</t>
+  </si>
+  <si>
+    <t>Fixed dimension handling and increased Epochs</t>
+  </si>
+  <si>
+    <t>small fluctuations, mae still decreasing after 30000 epochs</t>
+  </si>
+  <si>
+    <t>Train selected models</t>
+  </si>
+  <si>
+    <t>MLP, CNN, LSTM</t>
+  </si>
+  <si>
+    <t>Training for 10000 epochs with best nets from gridsearch</t>
+  </si>
+  <si>
+    <t>Training for 100000 epochs with dropout prob 0.0. ParamsUniform</t>
+  </si>
+  <si>
+    <t>Training for 100000 epochs with dropout prob 0.05. Params Uniform</t>
+  </si>
+  <si>
+    <t>Training for 100000 epochs with dropout 0.0, 0.05. Params Normal.</t>
+  </si>
+  <si>
+    <t>Training mlp for 10000 epochs and evaluate on year 2008</t>
+  </si>
+  <si>
+    <t>doing this in order to 1) better evaluate mlp0, and 2) to make nice prediction plots</t>
+  </si>
+  <si>
+    <t>interrupted</t>
+  </si>
+  <si>
+    <t>Example run: how long do 100 epochs with 50000 datapoints take</t>
+  </si>
+  <si>
+    <t>debugged</t>
+  </si>
+  <si>
+    <t>Run for 50000 epochs</t>
+  </si>
+  <si>
+    <t>train mlp1 on hyytiala 2001-2007, evaluate on 2008.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mlp7 and 8 saved into folder mlp9 and mlp10 on cluster. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save to mlp 7 and 8 / subfolders on my PC!</t>
+    </r>
+  </si>
+  <si>
+    <t>changes: standardize training and test set together. Performance good.</t>
+  </si>
+  <si>
+    <t>train all networks on bily_kriz</t>
+  </si>
+  <si>
+    <t>Goal: I want to be able to compare network architectures and inputs across space.</t>
+  </si>
+  <si>
+    <t>CNN with only conv-layer number search and one fc-layer.</t>
+  </si>
+  <si>
+    <t>Dropout or not does makes very slight difference.</t>
+  </si>
+  <si>
+    <t>Train selected simulations</t>
+  </si>
+  <si>
+    <t>Train MLP with normal and uniform parameters for 200000 epochs</t>
+  </si>
+  <si>
+    <t>CNN, LSTM</t>
+  </si>
+  <si>
+    <t>Train CNN and LSTM on Hyytiala</t>
+  </si>
+  <si>
+    <t>Finetuning</t>
+  </si>
+  <si>
+    <t>finetuningParallel</t>
+  </si>
+  <si>
+    <t>Finetune MLP 7 (no dropout, normally pretrained) on Hyytiala</t>
+  </si>
+  <si>
+    <t>Both, Finetuning and Feature Extraction. (Setting 0, Setting 1)</t>
+  </si>
+  <si>
+    <t>Train selected RF</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>train_selected_rf</t>
+  </si>
+  <si>
+    <t>Fit selected RF to Hyytiala 2001-2007. Eval on 2008</t>
+  </si>
+  <si>
+    <t>ytests, ypreds, errors</t>
+  </si>
+  <si>
+    <t>train_selected_simulations_5_6</t>
+  </si>
+  <si>
+    <t>Pretraining on simulations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saved into mlp5 and 6, but save into subfolders on home drive!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Parameter values were fixed to default values in simulation, while climate is sampled. </t>
+    </r>
+  </si>
+  <si>
+    <t>Saved into MLP9 and MLP10 folder respectively! Download into mlp7 and mlp8 no dropout!</t>
+  </si>
+  <si>
+    <t>Pretrain MLP 5 and 6 on simulations paramsFixed</t>
+  </si>
+  <si>
+    <t>Pretrain MLP 5,6 params normal.</t>
+  </si>
+  <si>
+    <t>MLp</t>
+  </si>
+  <si>
+    <t>Pretrain MLP 5 and 6, paramsFixed, dropout and no dropout</t>
+  </si>
+  <si>
+    <t>Saved into mlp5/paramsFix and mlp6/paramsFix</t>
+  </si>
+  <si>
+    <t>ms2_parallel_conv</t>
+  </si>
+  <si>
+    <t>Select best model at Bily Kriz data.</t>
+  </si>
+  <si>
+    <t>ms2_parallel_lstm</t>
+  </si>
+  <si>
+    <t>ms2_parallel_mlp</t>
+  </si>
+  <si>
+    <t>ms2_parallel_rf</t>
+  </si>
+  <si>
+    <t>Select best mlp, 10000 epochs</t>
+  </si>
+  <si>
+    <t>Select best mlp for more data: 3 stands, bilykriz, collelongo, soro</t>
+  </si>
+  <si>
+    <t>Select best lstm. Add smaller learning rate and smaller sequence.</t>
+  </si>
+  <si>
+    <t>ms4_parallel_rf</t>
+  </si>
+  <si>
+    <t>select best rf for more data: 3 stands, bilykriz, collelongo, soro</t>
+  </si>
+  <si>
+    <t>selected mlp: only 1 hiddenlayer with hidden nodes 256.</t>
+  </si>
+  <si>
+    <t>Train best model</t>
+  </si>
+  <si>
+    <t>Train best MLP on Bily Kriz data: with and without adaptive pooling</t>
+  </si>
+  <si>
+    <t>saved into: mlp2 and mlp2/adaptive_pooling</t>
+  </si>
+  <si>
+    <t>Train best MLP</t>
+  </si>
+  <si>
+    <t>Train selected MLP on Hyytiala data: with and without adaptive pooling (dropout/nodropout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saved into: mlp0 and mlp0/adaptive_pooling/dropout and  mlp0/adaptive_pooling/nodropout </t>
+  </si>
+  <si>
+    <t>Select best MLP with adaptive Pooling!</t>
+  </si>
+  <si>
+    <t>saved into:gridsearch/adaptPool</t>
+  </si>
+  <si>
+    <t>Select best model at Bily Kriz data. 10000 epochs</t>
+  </si>
+  <si>
+    <t>Select best LSTM with more data (bilykriz, collelongo, soro)</t>
+  </si>
+  <si>
+    <t>Train best MLP on data of 3 Stands</t>
+  </si>
+  <si>
+    <t>Train best MLP4 on simulations: Uniform and Normal, dropout and not</t>
+  </si>
+  <si>
+    <t>Saved into: mlp7 (normal) dropout or no dropout and mlp8 (uniform) dropout or no dropout</t>
+  </si>
+  <si>
+    <t>ms4_parallel_conv</t>
+  </si>
+  <si>
+    <t>Select best CNN with more data (bilykriz, collelongo, soro)</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Hyytiala</t>
+  </si>
+  <si>
+    <t>TestSet</t>
+  </si>
+  <si>
+    <t>Bily_Kriz</t>
+  </si>
+  <si>
+    <t>Bily_Kriz, Collelong, Soro</t>
+  </si>
+  <si>
+    <t>TrainValSet</t>
+  </si>
+  <si>
+    <t>2001,2002,2003,2004,2005,2006,2007</t>
+  </si>
+  <si>
+    <t>5fold</t>
   </si>
 </sst>
 </file>
@@ -348,13 +586,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -370,6 +610,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0397FBB-D2CD-440A-BC03-013EBB84CD2B}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,8 +926,8 @@
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="50.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="69" customWidth="1"/>
   </cols>
   <sheetData>
@@ -716,10 +960,10 @@
         <v>14</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -751,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -783,7 +1027,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -815,7 +1059,7 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -829,7 +1073,7 @@
         <v>8952255</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -838,16 +1082,16 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -861,25 +1105,25 @@
         <v>8957339</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -893,7 +1137,7 @@
         <v>8958437</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -902,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -925,7 +1169,7 @@
         <v>8964662</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -934,16 +1178,16 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -957,7 +1201,7 @@
         <v>8969522</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -966,19 +1210,19 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -992,7 +1236,7 @@
         <v>8969576</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1001,19 +1245,19 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="s">
-        <v>81</v>
-      </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1027,7 +1271,7 @@
         <v>8969578</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -1036,24 +1280,24 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>40474</v>
+        <v>44127</v>
       </c>
       <c r="B12" s="2">
         <v>0.5444444444444444</v>
@@ -1062,7 +1306,7 @@
         <v>8970797</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -1071,24 +1315,24 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>40474</v>
+        <v>44127</v>
       </c>
       <c r="B13" s="2">
         <v>0.62013888888888891</v>
@@ -1097,7 +1341,7 @@
         <v>8969831</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -1106,211 +1350,1208 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="C14">
+        <v>8976177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="C15">
+        <v>8976493</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
         <v>89</v>
       </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
         <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="C18">
+        <v>9000380</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="C19">
+        <v>9000362</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="C20">
+        <v>9000386</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C23">
+        <v>9016876</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="C24">
+        <v>9017369</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="6">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C27">
+        <v>9018378</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="C28">
+        <v>9018551</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="6">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="C30">
+        <v>9022728</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="C31">
+        <v>9030336</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C32">
+        <v>9032835</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="C33">
+        <v>9042051</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="C34">
+        <v>9042052</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C35">
+        <v>9033313</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C36">
+        <v>9033314</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="6">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" t="s">
+        <v>129</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="6">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="D41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="6">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" t="s">
+        <v>137</v>
+      </c>
+      <c r="J42" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C44">
+        <v>9042054</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="6">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="6">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="C46">
+        <v>9042047</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="6">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" t="s">
+        <v>144</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C47">
+        <v>9042055</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCE0804-6847-4A20-B6B7-E620D3B0F445}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="8" width="15" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F2" s="7">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1345,31 +2586,31 @@
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1380,28 +2621,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <v>50</v>
@@ -1412,28 +2653,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1447,28 +2688,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1485,25 +2726,25 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>1</v>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\OneDrive\Dokumente\Sc_Master\Masterthesis\Project\DomAdapt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F4679B-7C4A-4358-91E4-44C253A3E4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04749B6C-A43D-40E7-8DBC-F88E18B87521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{C35B19F6-04BE-4ADE-8625-8B0ABD47C8B3}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C35B19F6-04BE-4ADE-8625-8B0ABD47C8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -543,6 +543,98 @@
   </si>
   <si>
     <t>5fold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train MLP </t>
+  </si>
+  <si>
+    <t>Train MLP0 with adaptive pooling, dropout 0.1</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change activation function to sigmoid. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Train MLP with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>architecture2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on  50% of simulations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Train MLP with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>architecture4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on  50% of simulations</t>
+    </r>
+  </si>
+  <si>
+    <t>ms2sims</t>
+  </si>
+  <si>
+    <t>Model Selection on Simulations</t>
+  </si>
+  <si>
+    <t>Select Model architecture for pretraining on 10% of Simulations</t>
+  </si>
+  <si>
+    <t>Train MLP0 with adaptive_pooling (architecture3) and dropout 0.0, 0.1, 0.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">output: grid_search/simulations. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Architecture5</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -610,10 +702,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0397FBB-D2CD-440A-BC03-013EBB84CD2B}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2190,7 @@
         <v>128</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2128,7 +2216,7 @@
         <v>129</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2235,7 +2323,7 @@
         <v>139</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43" t="s">
         <v>140</v>
@@ -2267,7 +2355,7 @@
         <v>142</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2293,7 +2381,7 @@
         <v>143</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2322,7 +2410,7 @@
         <v>144</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s">
         <v>145</v>
@@ -2354,7 +2442,252 @@
         <v>147</v>
       </c>
       <c r="J47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="6">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" t="s">
+        <v>161</v>
+      </c>
+      <c r="J48" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J50" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="6">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="6">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" t="s">
+        <v>161</v>
+      </c>
+      <c r="J52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" t="s">
+        <v>164</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>162</v>
+      </c>
+      <c r="H54" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="6">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" t="s">
+        <v>164</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" t="s">
+        <v>164</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCE0804-6847-4A20-B6B7-E620D3B0F445}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
